--- a/Restaurant-Trainning Tasks Schedule.xlsx
+++ b/Restaurant-Trainning Tasks Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Week 1</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>reports</t>
+  </si>
+  <si>
+    <t>احمد نيازى</t>
+  </si>
+  <si>
+    <t>محمد عبد الحيمد</t>
+  </si>
+  <si>
+    <t>محمود فتحى</t>
+  </si>
+  <si>
+    <t>Asem</t>
+  </si>
+  <si>
+    <t>ياسر عبد الغنى</t>
   </si>
 </sst>
 </file>
@@ -190,7 +205,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -200,17 +214,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,7 +540,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,11 +550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -570,7 +585,7 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -598,13 +613,13 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1"/>
@@ -635,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
@@ -662,12 +677,12 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -698,10 +713,12 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="b">
+      <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -732,10 +749,12 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="b">
+      <c r="C7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -766,10 +785,12 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="b">
+      <c r="C8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -800,10 +821,12 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="b">
+      <c r="C9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -834,10 +857,12 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="b">
+      <c r="C10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -867,7 +892,7 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1096,7 +1121,7 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1322,7 +1347,7 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>

--- a/Restaurant-Trainning Tasks Schedule.xlsx
+++ b/Restaurant-Trainning Tasks Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Bank" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Week 1</t>
   </si>
@@ -92,6 +92,12 @@
   <si>
     <t>ياسر عبد الغنى</t>
   </si>
+  <si>
+    <t>table reservations</t>
+  </si>
+  <si>
+    <t>employee shifts</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +151,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +182,12 @@
         <bgColor rgb="FF38761D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,6 +239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,7 +555,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -650,8 +665,8 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="b">
-        <v>0</v>
+      <c r="C4" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1006,7 +1021,9 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1033,7 +1050,9 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Restaurant-Trainning Tasks Schedule.xlsx
+++ b/Restaurant-Trainning Tasks Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Bank" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Week 1</t>
   </si>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,6 +149,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -198,11 +206,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,6 +240,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,13 +254,20 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,7 +576,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,11 +586,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -595,11 +616,11 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="8"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -665,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="b">
+      <c r="C4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
@@ -692,11 +713,11 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -728,10 +749,10 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="b">
-        <v>0</v>
+      <c r="C6" s="10" t="b">
+        <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1"/>
@@ -767,7 +788,7 @@
       <c r="C7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2"/>
@@ -793,17 +814,17 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="b">
-        <v>0</v>
+      <c r="C8" s="18" t="b">
+        <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2"/>
@@ -829,17 +850,17 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="b">
-        <v>0</v>
+      <c r="C9" s="18" t="b">
+        <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2"/>
@@ -865,17 +886,17 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="b">
-        <v>0</v>
+      <c r="C10" s="18" t="b">
+        <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2"/>
@@ -902,11 +923,11 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -937,7 +958,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -967,7 +988,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -997,7 +1018,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1024,9 +1045,14 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="b">
+        <f>(C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1055,7 +1081,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1082,7 +1108,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1110,7 +1136,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1135,11 +1161,11 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1168,7 +1194,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1196,7 +1222,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1224,7 +1250,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1252,7 +1278,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1280,7 +1306,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1308,7 +1334,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1336,7 +1362,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1361,11 +1387,11 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="8"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>

--- a/Restaurant-Trainning Tasks Schedule.xlsx
+++ b/Restaurant-Trainning Tasks Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Week 1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Add - edit -delete - view</t>
-  </si>
-  <si>
-    <t>Employess - roles - permissions</t>
   </si>
   <si>
     <t xml:space="preserve">products - attributes - options  </t>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>employee shifts</t>
+  </si>
+  <si>
+    <t>Employees - roles - permissions</t>
   </si>
 </sst>
 </file>
@@ -243,6 +243,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,15 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -576,7 +576,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -586,11 +586,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>13</v>
+      <c r="A1" s="16" t="s">
+        <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -616,11 +616,11 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="8"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -713,11 +713,11 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
+      <c r="A5" s="18" t="s">
+        <v>13</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -752,8 +752,8 @@
       <c r="C6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>19</v>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -780,16 +780,16 @@
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="b">
-        <v>0</v>
+      <c r="C7" s="10" t="b">
+        <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>20</v>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -816,16 +816,16 @@
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="b">
+      <c r="C8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -852,16 +852,16 @@
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="b">
+      <c r="C9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -888,16 +888,16 @@
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="b">
+      <c r="C10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -923,11 +923,11 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -954,11 +954,11 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -984,11 +984,11 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1014,11 +1014,11 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1043,15 +1043,15 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="10" t="b">
         <f>(C6)</f>
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1077,11 +1077,16 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="b">
+        <f>(C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1108,7 +1113,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1136,7 +1141,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1161,11 +1166,11 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1194,7 +1199,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1222,7 +1227,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1250,7 +1255,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1278,7 +1283,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1306,7 +1311,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1334,7 +1339,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1362,7 +1367,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1387,11 +1392,11 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="8"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>

--- a/Restaurant-Trainning Tasks Schedule.xlsx
+++ b/Restaurant-Trainning Tasks Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Week 1</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t>Employees - roles - permissions</t>
+  </si>
+  <si>
+    <t>Pos Order</t>
+  </si>
+  <si>
+    <t>Pos Cook</t>
+  </si>
+  <si>
+    <t>Pos Waiter</t>
+  </si>
+  <si>
+    <t>Dashboard Home</t>
+  </si>
+  <si>
+    <t>reservations if users are booking From before</t>
+  </si>
+  <si>
+    <t>if Admin is in the shift</t>
+  </si>
+  <si>
+    <t>invoices Page</t>
   </si>
 </sst>
 </file>
@@ -576,7 +597,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1131,9 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="12"/>
@@ -1138,7 +1161,9 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="12"/>
@@ -1196,7 +1221,9 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="12"/>
@@ -1224,7 +1251,9 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="12"/>
@@ -1252,7 +1281,9 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="12"/>
@@ -1280,7 +1311,9 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="12"/>
@@ -1308,7 +1341,9 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="12"/>

--- a/Restaurant-Trainning Tasks Schedule.xlsx
+++ b/Restaurant-Trainning Tasks Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Week 1</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>invoices Page</t>
+  </si>
+  <si>
+    <t>DataTable All Tables</t>
   </si>
 </sst>
 </file>
@@ -596,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1374,9 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="12"/>
